--- a/data/partList/23.xlsx
+++ b/data/partList/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Malzeme Kodu</t>
   </si>
@@ -23,19 +23,19 @@
     <t>Adet</t>
   </si>
   <si>
-    <t>150-52-13-016</t>
-  </si>
-  <si>
-    <t>5.5 kW (Kompakt)  B5 Flanşlı Motor</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>5.5 kW  B5 Flanşlı Motor</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>150-51-06-510</t>
-  </si>
-  <si>
-    <t>250'lik Kampana</t>
+    <t>150-51-06-511</t>
+  </si>
+  <si>
+    <t>300 lük Kampana</t>
   </si>
   <si>
     <t>150-50-21-590</t>
@@ -119,10 +119,10 @@
     <t>1 - 1/2 Galvanizli Redüksiyon</t>
   </si>
   <si>
-    <t>150-51-06-579</t>
-  </si>
-  <si>
-    <t>1PN28 İşlenmiş Kaplin Takımı</t>
+    <t>150-51-06-576</t>
+  </si>
+  <si>
+    <t>1PN38 İşlenmiş Kaplin Takımı</t>
   </si>
   <si>
     <t>150-51-05-051</t>
@@ -137,9 +137,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>1/2 - M30 Nipel</t>
   </si>
   <si>
@@ -194,7 +191,7 @@
     <t>M6 x 15 İmbus Civata</t>
   </si>
   <si>
-    <t>10</t>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -456,10 +453,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -470,7 +467,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -478,10 +475,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -489,10 +486,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -500,10 +497,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -511,10 +508,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -522,10 +519,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -533,10 +530,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -544,10 +541,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -555,13 +552,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
